--- a/python3/pandas/cool_output.xlsx
+++ b/python3/pandas/cool_output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>a</t>
   </si>
@@ -92,19 +92,16 @@
     <t>CANCEL THE CANCELLED</t>
   </si>
   <si>
-    <t>UNCANCEL</t>
-  </si>
-  <si>
     <t>SUPERCANCEL</t>
   </si>
   <si>
     <t>CANNOT CANCEL</t>
   </si>
   <si>
+    <t>bb</t>
+  </si>
+  <si>
     <t>DOOP LOOP SCOOP</t>
-  </si>
-  <si>
-    <t>bb</t>
   </si>
 </sst>
 </file>
@@ -453,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,37 +789,37 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
         <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
       </c>
       <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -841,7 +838,7 @@
         <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -852,181 +849,61 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s"/>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
         <v>1</v>
       </c>
     </row>
